--- a/natmiOut/OldD0/LR-pairs_lrc2p/Lpl-Vldlr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Lpl-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.5202318001816</v>
+        <v>23.496322</v>
       </c>
       <c r="H2">
-        <v>22.5202318001816</v>
+        <v>70.488966</v>
       </c>
       <c r="I2">
-        <v>0.1279753402207684</v>
+        <v>0.1321353991144917</v>
       </c>
       <c r="J2">
-        <v>0.1279753402207684</v>
+        <v>0.1321353991144917</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>27.3874184929622</v>
+        <v>0.06089466666666667</v>
       </c>
       <c r="N2">
-        <v>27.3874184929622</v>
+        <v>0.182684</v>
       </c>
       <c r="O2">
-        <v>0.8802160875901095</v>
+        <v>0.001903591634475228</v>
       </c>
       <c r="P2">
-        <v>0.8802160875901095</v>
+        <v>0.001903591634475228</v>
       </c>
       <c r="Q2">
-        <v>616.7710128700891</v>
+        <v>1.430800696082667</v>
       </c>
       <c r="R2">
-        <v>616.7710128700891</v>
+        <v>12.877206264744</v>
       </c>
       <c r="S2">
-        <v>0.1126459532771379</v>
+        <v>0.0002515318403723918</v>
       </c>
       <c r="T2">
-        <v>0.1126459532771379</v>
+        <v>0.0002515318403723917</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.5202318001816</v>
+        <v>23.496322</v>
       </c>
       <c r="H3">
-        <v>22.5202318001816</v>
+        <v>70.488966</v>
       </c>
       <c r="I3">
-        <v>0.1279753402207684</v>
+        <v>0.1321353991144917</v>
       </c>
       <c r="J3">
-        <v>0.1279753402207684</v>
+        <v>0.1321353991144917</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.72700770202426</v>
+        <v>28.046323</v>
       </c>
       <c r="N3">
-        <v>3.72700770202426</v>
+        <v>84.138969</v>
       </c>
       <c r="O3">
-        <v>0.1197839124098905</v>
+        <v>0.8767392739472014</v>
       </c>
       <c r="P3">
-        <v>0.1197839124098905</v>
+        <v>0.8767392739472013</v>
       </c>
       <c r="Q3">
-        <v>83.93307737064849</v>
+        <v>658.9854361240061</v>
       </c>
       <c r="R3">
-        <v>83.93307737064849</v>
+        <v>5930.868925116055</v>
       </c>
       <c r="S3">
-        <v>0.01532938694363045</v>
+        <v>0.1158482938823631</v>
       </c>
       <c r="T3">
-        <v>0.01532938694363045</v>
+        <v>0.1158482938823631</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>124.785930724697</v>
+        <v>23.496322</v>
       </c>
       <c r="H4">
-        <v>124.785930724697</v>
+        <v>70.488966</v>
       </c>
       <c r="I4">
-        <v>0.7091188972188801</v>
+        <v>0.1321353991144917</v>
       </c>
       <c r="J4">
-        <v>0.7091188972188801</v>
+        <v>0.1321353991144917</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.3874184929622</v>
+        <v>3.882136333333333</v>
       </c>
       <c r="N4">
-        <v>27.3874184929622</v>
+        <v>11.646409</v>
       </c>
       <c r="O4">
-        <v>0.8802160875901095</v>
+        <v>0.1213571344183235</v>
       </c>
       <c r="P4">
-        <v>0.8802160875901095</v>
+        <v>0.1213571344183235</v>
       </c>
       <c r="Q4">
-        <v>3417.564506791067</v>
+        <v>91.21592533589934</v>
       </c>
       <c r="R4">
-        <v>3417.564506791067</v>
+        <v>820.9433280230941</v>
       </c>
       <c r="S4">
-        <v>0.6241778613462157</v>
+        <v>0.01603557339175618</v>
       </c>
       <c r="T4">
-        <v>0.6241778613462157</v>
+        <v>0.01603557339175618</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>124.785930724697</v>
+        <v>124.9120333333333</v>
       </c>
       <c r="H5">
-        <v>124.785930724697</v>
+        <v>374.7361</v>
       </c>
       <c r="I5">
-        <v>0.7091188972188801</v>
+        <v>0.7024631931202969</v>
       </c>
       <c r="J5">
-        <v>0.7091188972188801</v>
+        <v>0.7024631931202969</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.72700770202426</v>
+        <v>0.06089466666666667</v>
       </c>
       <c r="N5">
-        <v>3.72700770202426</v>
+        <v>0.182684</v>
       </c>
       <c r="O5">
-        <v>0.1197839124098905</v>
+        <v>0.001903591634475228</v>
       </c>
       <c r="P5">
-        <v>0.1197839124098905</v>
+        <v>0.001903591634475228</v>
       </c>
       <c r="Q5">
-        <v>465.0781249152114</v>
+        <v>7.606476632488889</v>
       </c>
       <c r="R5">
-        <v>465.0781249152114</v>
+        <v>68.4582896924</v>
       </c>
       <c r="S5">
-        <v>0.08494103587266447</v>
+        <v>0.001337203057950554</v>
       </c>
       <c r="T5">
-        <v>0.08494103587266447</v>
+        <v>0.001337203057950554</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.667050449842</v>
+        <v>124.9120333333333</v>
       </c>
       <c r="H6">
-        <v>28.667050449842</v>
+        <v>374.7361</v>
       </c>
       <c r="I6">
-        <v>0.1629057625603515</v>
+        <v>0.7024631931202969</v>
       </c>
       <c r="J6">
-        <v>0.1629057625603515</v>
+        <v>0.7024631931202969</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.3874184929622</v>
+        <v>28.046323</v>
       </c>
       <c r="N6">
-        <v>27.3874184929622</v>
+        <v>84.138969</v>
       </c>
       <c r="O6">
-        <v>0.8802160875901095</v>
+        <v>0.8767392739472014</v>
       </c>
       <c r="P6">
-        <v>0.8802160875901095</v>
+        <v>0.8767392739472013</v>
       </c>
       <c r="Q6">
-        <v>785.1165076286832</v>
+        <v>3503.323233453433</v>
       </c>
       <c r="R6">
-        <v>785.1165076286832</v>
+        <v>31529.9091010809</v>
       </c>
       <c r="S6">
-        <v>0.1433922729667559</v>
+        <v>0.6158770699109218</v>
       </c>
       <c r="T6">
-        <v>0.1433922729667559</v>
+        <v>0.6158770699109217</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.667050449842</v>
+        <v>124.9120333333333</v>
       </c>
       <c r="H7">
-        <v>28.667050449842</v>
+        <v>374.7361</v>
       </c>
       <c r="I7">
-        <v>0.1629057625603515</v>
+        <v>0.7024631931202969</v>
       </c>
       <c r="J7">
-        <v>0.1629057625603515</v>
+        <v>0.7024631931202969</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.72700770202426</v>
+        <v>3.882136333333333</v>
       </c>
       <c r="N7">
-        <v>3.72700770202426</v>
+        <v>11.646409</v>
       </c>
       <c r="O7">
-        <v>0.1197839124098905</v>
+        <v>0.1213571344183235</v>
       </c>
       <c r="P7">
-        <v>0.1197839124098905</v>
+        <v>0.1213571344183235</v>
       </c>
       <c r="Q7">
-        <v>106.8423178208792</v>
+        <v>484.9255430738777</v>
       </c>
       <c r="R7">
-        <v>106.8423178208792</v>
+        <v>4364.3298876649</v>
       </c>
       <c r="S7">
-        <v>0.01951348959359556</v>
+        <v>0.08524892015142459</v>
       </c>
       <c r="T7">
-        <v>0.01951348959359556</v>
+        <v>0.08524892015142459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>29.411685</v>
+      </c>
+      <c r="H8">
+        <v>88.235055</v>
+      </c>
+      <c r="I8">
+        <v>0.1654014077652114</v>
+      </c>
+      <c r="J8">
+        <v>0.1654014077652114</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.06089466666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.182684</v>
+      </c>
+      <c r="O8">
+        <v>0.001903591634475228</v>
+      </c>
+      <c r="P8">
+        <v>0.001903591634475228</v>
+      </c>
+      <c r="Q8">
+        <v>1.79101475418</v>
+      </c>
+      <c r="R8">
+        <v>16.11913278762</v>
+      </c>
+      <c r="S8">
+        <v>0.0003148567361522824</v>
+      </c>
+      <c r="T8">
+        <v>0.0003148567361522824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>29.411685</v>
+      </c>
+      <c r="H9">
+        <v>88.235055</v>
+      </c>
+      <c r="I9">
+        <v>0.1654014077652114</v>
+      </c>
+      <c r="J9">
+        <v>0.1654014077652114</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>28.046323</v>
+      </c>
+      <c r="N9">
+        <v>84.138969</v>
+      </c>
+      <c r="O9">
+        <v>0.8767392739472014</v>
+      </c>
+      <c r="P9">
+        <v>0.8767392739472013</v>
+      </c>
+      <c r="Q9">
+        <v>824.889617484255</v>
+      </c>
+      <c r="R9">
+        <v>7424.006557358295</v>
+      </c>
+      <c r="S9">
+        <v>0.1450139101539164</v>
+      </c>
+      <c r="T9">
+        <v>0.1450139101539164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>29.411685</v>
+      </c>
+      <c r="H10">
+        <v>88.235055</v>
+      </c>
+      <c r="I10">
+        <v>0.1654014077652114</v>
+      </c>
+      <c r="J10">
+        <v>0.1654014077652114</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.882136333333333</v>
+      </c>
+      <c r="N10">
+        <v>11.646409</v>
+      </c>
+      <c r="O10">
+        <v>0.1213571344183235</v>
+      </c>
+      <c r="P10">
+        <v>0.1213571344183235</v>
+      </c>
+      <c r="Q10">
+        <v>114.180170963055</v>
+      </c>
+      <c r="R10">
+        <v>1027.621538667495</v>
+      </c>
+      <c r="S10">
+        <v>0.02007264087514269</v>
+      </c>
+      <c r="T10">
+        <v>0.02007264087514269</v>
       </c>
     </row>
   </sheetData>
